--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H2">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I2">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J2">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N2">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O2">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P2">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q2">
-        <v>2.232279624286222</v>
+        <v>1.885687770576222</v>
       </c>
       <c r="R2">
-        <v>20.090516618576</v>
+        <v>16.971189935186</v>
       </c>
       <c r="S2">
-        <v>0.01155837487114301</v>
+        <v>0.01006704620315775</v>
       </c>
       <c r="T2">
-        <v>0.01155837487114301</v>
+        <v>0.01006704620315775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H3">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I3">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J3">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P3">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q3">
-        <v>82.02880409432045</v>
+        <v>76.28174811449178</v>
       </c>
       <c r="R3">
-        <v>738.259236848884</v>
+        <v>686.5357330304259</v>
       </c>
       <c r="S3">
-        <v>0.4247315872252654</v>
+        <v>0.4072423307340899</v>
       </c>
       <c r="T3">
-        <v>0.4247315872252654</v>
+        <v>0.4072423307340899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H4">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I4">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J4">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P4">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q4">
-        <v>0.409955307904889</v>
+        <v>0.5302606829795555</v>
       </c>
       <c r="R4">
-        <v>3.689597771144</v>
+        <v>4.772346146816</v>
       </c>
       <c r="S4">
-        <v>0.002122680813652405</v>
+        <v>0.002830881590562554</v>
       </c>
       <c r="T4">
-        <v>0.002122680813652405</v>
+        <v>0.002830881590562554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H5">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I5">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J5">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N5">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O5">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P5">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q5">
-        <v>4.859903820269111</v>
+        <v>4.149459645269555</v>
       </c>
       <c r="R5">
-        <v>43.73913438242199</v>
+        <v>37.34513680742599</v>
       </c>
       <c r="S5">
-        <v>0.02516377857918752</v>
+        <v>0.02215255495574562</v>
       </c>
       <c r="T5">
-        <v>0.02516377857918752</v>
+        <v>0.02215255495574562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H6">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I6">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J6">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N6">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O6">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P6">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q6">
-        <v>0.06371032081577777</v>
+        <v>0.02768297476833333</v>
       </c>
       <c r="R6">
-        <v>0.5733928873419999</v>
+        <v>0.249146772915</v>
       </c>
       <c r="S6">
-        <v>0.0003298815090806589</v>
+        <v>0.0001477899949197327</v>
       </c>
       <c r="T6">
-        <v>0.0003298815090806589</v>
+        <v>0.0001477899949197327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J7">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N7">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O7">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P7">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q7">
-        <v>2.09724383212</v>
+        <v>1.905091582629999</v>
       </c>
       <c r="R7">
-        <v>18.87519448908</v>
+        <v>17.14582424367</v>
       </c>
       <c r="S7">
-        <v>0.01085918186239169</v>
+        <v>0.01017063656181139</v>
       </c>
       <c r="T7">
-        <v>0.01085918186239169</v>
+        <v>0.01017063656181139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I8">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J8">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P8">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q8">
         <v>77.06669073683</v>
@@ -948,10 +948,10 @@
         <v>693.6002166314699</v>
       </c>
       <c r="S8">
-        <v>0.3990385845588455</v>
+        <v>0.4114328726515846</v>
       </c>
       <c r="T8">
-        <v>0.3990385845588456</v>
+        <v>0.4114328726515846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I9">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J9">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N9">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O9">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P9">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q9">
-        <v>0.38515615678</v>
+        <v>0.5357170892799999</v>
       </c>
       <c r="R9">
-        <v>3.46640541102</v>
+        <v>4.821453803519999</v>
       </c>
       <c r="S9">
-        <v>0.001994274908733909</v>
+        <v>0.00286001148957706</v>
       </c>
       <c r="T9">
-        <v>0.001994274908733909</v>
+        <v>0.00286001148957706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I10">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J10">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N10">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O10">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P10">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q10">
-        <v>4.565916922264999</v>
+        <v>4.192157771829999</v>
       </c>
       <c r="R10">
-        <v>41.09325230038499</v>
+        <v>37.72941994647</v>
       </c>
       <c r="S10">
-        <v>0.02364156302098991</v>
+        <v>0.02238050574355866</v>
       </c>
       <c r="T10">
-        <v>0.02364156302098991</v>
+        <v>0.02238050574355866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I11">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J11">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N11">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O11">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P11">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q11">
-        <v>0.05985633516499998</v>
+        <v>0.027967833825</v>
       </c>
       <c r="R11">
-        <v>0.5387070164849999</v>
+        <v>0.251710504425</v>
       </c>
       <c r="S11">
-        <v>0.0003099262084923917</v>
+        <v>0.0001493107606210317</v>
       </c>
       <c r="T11">
-        <v>0.0003099262084923917</v>
+        <v>0.0001493107606210317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H12">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I12">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J12">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N12">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O12">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P12">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q12">
-        <v>0.07313056206933334</v>
+        <v>0.05502762092111111</v>
       </c>
       <c r="R12">
-        <v>0.6581750586240001</v>
+        <v>0.49524858829</v>
       </c>
       <c r="S12">
-        <v>0.0003786579610092639</v>
+        <v>0.0002937737683335544</v>
       </c>
       <c r="T12">
-        <v>0.000378657961009264</v>
+        <v>0.0002937737683335544</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H13">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I13">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J13">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.337258</v>
       </c>
       <c r="O13">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P13">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q13">
-        <v>2.687303366490667</v>
+        <v>2.226032954098889</v>
       </c>
       <c r="R13">
-        <v>24.185730298416</v>
+        <v>20.03429658689</v>
       </c>
       <c r="S13">
-        <v>0.01391441258722932</v>
+        <v>0.01188403348016486</v>
       </c>
       <c r="T13">
-        <v>0.01391441258722932</v>
+        <v>0.01188403348016486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H14">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I14">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J14">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N14">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O14">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P14">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q14">
-        <v>0.01343033451733334</v>
+        <v>0.01547392113777778</v>
       </c>
       <c r="R14">
-        <v>0.120873010656</v>
+        <v>0.13926529024</v>
       </c>
       <c r="S14">
-        <v>6.954005193046834E-05</v>
+        <v>8.261000652850741E-05</v>
       </c>
       <c r="T14">
-        <v>6.954005193046834E-05</v>
+        <v>8.26100065285074E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H15">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I15">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J15">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N15">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O15">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P15">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q15">
-        <v>0.1592128038586667</v>
+        <v>0.1210883879877778</v>
       </c>
       <c r="R15">
-        <v>1.432915234728</v>
+        <v>1.08979549189</v>
       </c>
       <c r="S15">
-        <v>0.0008243775785359579</v>
+        <v>0.000646449754598744</v>
       </c>
       <c r="T15">
-        <v>0.000824377578535958</v>
+        <v>0.0006464497545987438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H16">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I16">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J16">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N16">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O16">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P16">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q16">
-        <v>0.002087180978666666</v>
+        <v>0.0008078369416666668</v>
       </c>
       <c r="R16">
-        <v>0.018784628808</v>
+        <v>0.007270532475</v>
       </c>
       <c r="S16">
-        <v>1.080707807072437E-05</v>
+        <v>4.312766908325909E-06</v>
       </c>
       <c r="T16">
-        <v>1.080707807072437E-05</v>
+        <v>4.312766908325908E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H17">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I17">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J17">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N17">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O17">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P17">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q17">
-        <v>0.3281274987706667</v>
+        <v>0.3778076383448888</v>
       </c>
       <c r="R17">
-        <v>2.953147488936</v>
+        <v>3.400268745104</v>
       </c>
       <c r="S17">
-        <v>0.001698989945103577</v>
+        <v>0.002016986592622213</v>
       </c>
       <c r="T17">
-        <v>0.001698989945103577</v>
+        <v>0.002016986592622212</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H18">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I18">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J18">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.337258</v>
       </c>
       <c r="O18">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P18">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q18">
-        <v>12.05758724031933</v>
+        <v>15.28345654760711</v>
       </c>
       <c r="R18">
-        <v>108.518285162874</v>
+        <v>137.551108928464</v>
       </c>
       <c r="S18">
-        <v>0.06243219346218076</v>
+        <v>0.08159318080622589</v>
       </c>
       <c r="T18">
-        <v>0.06243219346218076</v>
+        <v>0.08159318080622588</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H19">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I19">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J19">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N19">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O19">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P19">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q19">
-        <v>0.06026019694266668</v>
+        <v>0.1062405661582222</v>
       </c>
       <c r="R19">
-        <v>0.5423417724840001</v>
+        <v>0.9561650954240001</v>
       </c>
       <c r="S19">
-        <v>0.0003120173380138067</v>
+        <v>0.0005671822795126037</v>
       </c>
       <c r="T19">
-        <v>0.0003120173380138067</v>
+        <v>0.0005671822795126036</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H20">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I20">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J20">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N20">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O20">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P20">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q20">
-        <v>0.7143675314963334</v>
+        <v>0.8313664507182222</v>
       </c>
       <c r="R20">
-        <v>6.429307783467</v>
+        <v>7.482298056464</v>
       </c>
       <c r="S20">
-        <v>0.003698876984306058</v>
+        <v>0.004438382961235478</v>
       </c>
       <c r="T20">
-        <v>0.003698876984306059</v>
+        <v>0.004438382961235476</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H21">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I21">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J21">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N21">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O21">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P21">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q21">
-        <v>0.009364914676333332</v>
+        <v>0.005546432173333333</v>
       </c>
       <c r="R21">
-        <v>0.08428423208699999</v>
+        <v>0.04991788956</v>
       </c>
       <c r="S21">
-        <v>4.84899800579153E-05</v>
+        <v>2.961051655681317E-05</v>
       </c>
       <c r="T21">
-        <v>4.848998005791531E-05</v>
+        <v>2.961051655681317E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H22">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I22">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J22">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N22">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O22">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P22">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q22">
-        <v>0.081137635088</v>
+        <v>0.03839876457977778</v>
       </c>
       <c r="R22">
-        <v>0.7302387157920001</v>
+        <v>0.345588881218</v>
       </c>
       <c r="S22">
-        <v>0.000420117261431789</v>
+        <v>0.000204997955229182</v>
       </c>
       <c r="T22">
-        <v>0.000420117261431789</v>
+        <v>0.0002049979552291819</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H23">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I23">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J23">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.337258</v>
       </c>
       <c r="O23">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P23">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q23">
-        <v>2.981536497892</v>
+        <v>1.553345645704223</v>
       </c>
       <c r="R23">
-        <v>26.833828481028</v>
+        <v>13.980110811338</v>
       </c>
       <c r="S23">
-        <v>0.01543790310125232</v>
+        <v>0.008292784536646721</v>
       </c>
       <c r="T23">
-        <v>0.01543790310125232</v>
+        <v>0.008292784536646719</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H24">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I24">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J24">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N24">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O24">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P24">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q24">
-        <v>0.014900823272</v>
+        <v>0.01079784015644445</v>
       </c>
       <c r="R24">
-        <v>0.134107409448</v>
+        <v>0.09718056140800001</v>
       </c>
       <c r="S24">
-        <v>7.715399961216715E-05</v>
+        <v>5.764599921864132E-05</v>
       </c>
       <c r="T24">
-        <v>7.715399961216715E-05</v>
+        <v>5.764599921864131E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H25">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I25">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J25">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N25">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O25">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P25">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q25">
-        <v>0.176645030686</v>
+        <v>0.08449655692644445</v>
       </c>
       <c r="R25">
-        <v>1.589805276174</v>
+        <v>0.760469012338</v>
       </c>
       <c r="S25">
-        <v>0.0009146387672853472</v>
+        <v>0.0004510984033832563</v>
       </c>
       <c r="T25">
-        <v>0.0009146387672853473</v>
+        <v>0.0004510984033832561</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H26">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I26">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J26">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N26">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O26">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P26">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q26">
-        <v>0.002315706646</v>
+        <v>0.0005637158216666667</v>
       </c>
       <c r="R26">
-        <v>0.020841359814</v>
+        <v>0.005073442395000001</v>
       </c>
       <c r="S26">
-        <v>1.199034619805917E-05</v>
+        <v>3.009487207118726E-06</v>
       </c>
       <c r="T26">
-        <v>1.199034619805917E-05</v>
+        <v>3.009487207118726E-06</v>
       </c>
     </row>
   </sheetData>
